--- a/Team-Data/2012-13/11-15-2012-13.xlsx
+++ b/Team-Data/2012-13/11-15-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -750,7 +817,7 @@
         <v>20</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="n">
         <v>21</v>
@@ -774,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -792,28 +859,28 @@
         <v>23</v>
       </c>
       <c r="AT2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU2" t="n">
         <v>15</v>
       </c>
       <c r="AV2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX2" t="n">
         <v>24</v>
       </c>
       <c r="AY2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
         <v>9</v>
       </c>
       <c r="BA2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
         <v>22</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0.556</v>
+        <v>0.625</v>
       </c>
       <c r="H3" t="n">
         <v>48.6</v>
       </c>
       <c r="I3" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.468</v>
       </c>
       <c r="L3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="M3" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="N3" t="n">
-        <v>0.368</v>
+        <v>0.348</v>
       </c>
       <c r="O3" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="P3" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.797</v>
+        <v>0.796</v>
       </c>
       <c r="R3" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="S3" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="T3" t="n">
-        <v>37.6</v>
+        <v>36.8</v>
       </c>
       <c r="U3" t="n">
-        <v>24</v>
+        <v>24.9</v>
       </c>
       <c r="V3" t="n">
         <v>13.4</v>
@@ -908,40 +975,40 @@
         <v>7.3</v>
       </c>
       <c r="X3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.6</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF3" t="n">
         <v>7</v>
       </c>
-      <c r="AF3" t="n">
-        <v>13</v>
-      </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -950,19 +1017,19 @@
         <v>5</v>
       </c>
       <c r="AL3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM3" t="n">
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
       </c>
       <c r="AP3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ3" t="n">
         <v>5</v>
@@ -971,37 +1038,37 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
       </c>
       <c r="AU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV3" t="n">
         <v>4</v>
       </c>
-      <c r="AV3" t="n">
-        <v>6</v>
-      </c>
       <c r="AW3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX3" t="n">
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB3" t="n">
         <v>13</v>
       </c>
       <c r="BC3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.714</v>
+        <v>0.667</v>
       </c>
       <c r="H4" t="n">
         <v>48</v>
@@ -1048,76 +1115,76 @@
         <v>35.7</v>
       </c>
       <c r="J4" t="n">
-        <v>79.40000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.45</v>
+        <v>0.454</v>
       </c>
       <c r="L4" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M4" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.34</v>
+        <v>0.336</v>
       </c>
       <c r="O4" t="n">
-        <v>18.6</v>
+        <v>18</v>
       </c>
       <c r="P4" t="n">
-        <v>25.9</v>
+        <v>25.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.718</v>
+        <v>0.706</v>
       </c>
       <c r="R4" t="n">
-        <v>12.4</v>
+        <v>11.5</v>
       </c>
       <c r="S4" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="T4" t="n">
-        <v>42.7</v>
+        <v>42</v>
       </c>
       <c r="U4" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="V4" t="n">
-        <v>14.4</v>
+        <v>15</v>
       </c>
       <c r="W4" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X4" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Y4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="AC4" t="n">
         <v>4.3</v>
       </c>
-      <c r="Z4" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>4.4</v>
-      </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH4" t="n">
         <v>15</v>
@@ -1126,43 +1193,43 @@
         <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL4" t="n">
         <v>10</v>
       </c>
       <c r="AM4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ4" t="n">
         <v>26</v>
       </c>
       <c r="AR4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV4" t="n">
         <v>13</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>10</v>
       </c>
       <c r="AW4" t="n">
         <v>27</v>
@@ -1171,19 +1238,19 @@
         <v>14</v>
       </c>
       <c r="AY4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ4" t="n">
         <v>4</v>
       </c>
       <c r="BA4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB4" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BC4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -1293,13 +1360,13 @@
         <v>22</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
         <v>7</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
         <v>7</v>
@@ -1323,7 +1390,7 @@
         <v>28</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
         <v>13</v>
@@ -1359,10 +1426,10 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC5" t="n">
         <v>19</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>4.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF6" t="n">
         <v>7</v>
@@ -1493,7 +1560,7 @@
         <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1514,7 +1581,7 @@
         <v>8</v>
       </c>
       <c r="AR6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS6" t="n">
         <v>13</v>
@@ -1523,13 +1590,13 @@
         <v>11</v>
       </c>
       <c r="AU6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX6" t="n">
         <v>15</v>
@@ -1544,10 +1611,10 @@
         <v>1</v>
       </c>
       <c r="BB6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BC6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
         <v>25</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -1836,19 +1903,19 @@
         <v>3.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG8" t="n">
         <v>13</v>
       </c>
-      <c r="AG8" t="n">
-        <v>12</v>
-      </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
         <v>8</v>
@@ -1863,13 +1930,13 @@
         <v>5</v>
       </c>
       <c r="AM8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN8" t="n">
         <v>3</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
         <v>12</v>
@@ -1890,16 +1957,16 @@
         <v>12</v>
       </c>
       <c r="AV8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX8" t="n">
         <v>21</v>
       </c>
       <c r="AY8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
@@ -1911,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -1940,112 +2007,112 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>0.444</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="I9" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
       <c r="J9" t="n">
-        <v>90</v>
+        <v>90.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.436</v>
+        <v>0.438</v>
       </c>
       <c r="L9" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M9" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="N9" t="n">
         <v>0.3</v>
       </c>
       <c r="O9" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="P9" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.647</v>
+        <v>0.643</v>
       </c>
       <c r="R9" t="n">
-        <v>16.9</v>
+        <v>16.4</v>
       </c>
       <c r="S9" t="n">
-        <v>33.8</v>
+        <v>34.6</v>
       </c>
       <c r="T9" t="n">
-        <v>50.7</v>
+        <v>51</v>
       </c>
       <c r="U9" t="n">
-        <v>22</v>
+        <v>22.4</v>
       </c>
       <c r="V9" t="n">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="W9" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="X9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y9" t="n">
         <v>7.4</v>
       </c>
-      <c r="Y9" t="n">
-        <v>7.6</v>
-      </c>
       <c r="Z9" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.4</v>
+        <v>20.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
       </c>
       <c r="AJ9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK9" t="n">
         <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AN9" t="n">
         <v>25</v>
@@ -2054,7 +2121,7 @@
         <v>27</v>
       </c>
       <c r="AP9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
         <v>30</v>
@@ -2063,37 +2130,37 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
       </c>
       <c r="AU9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW9" t="n">
         <v>21</v>
       </c>
-      <c r="AW9" t="n">
-        <v>22</v>
-      </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>13</v>
       </c>
       <c r="BA9" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="BB9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BC9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-7.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>29</v>
@@ -2230,7 +2297,7 @@
         <v>27</v>
       </c>
       <c r="AN10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO10" t="n">
         <v>15</v>
@@ -2248,13 +2315,13 @@
         <v>29</v>
       </c>
       <c r="AT10" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AU10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW10" t="n">
         <v>28</v>
@@ -2266,7 +2333,7 @@
         <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA10" t="n">
         <v>9</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -2382,13 +2449,13 @@
         <v>-2.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
         <v>14</v>
@@ -2400,7 +2467,7 @@
         <v>18</v>
       </c>
       <c r="AJ11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>20</v>
@@ -2415,7 +2482,7 @@
         <v>22</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>8</v>
@@ -2424,7 +2491,7 @@
         <v>22</v>
       </c>
       <c r="AR11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS11" t="n">
         <v>4</v>
@@ -2442,7 +2509,7 @@
         <v>18</v>
       </c>
       <c r="AX11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -2564,13 +2631,13 @@
         <v>0.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG12" t="n">
         <v>14</v>
@@ -2621,13 +2688,13 @@
         <v>25</v>
       </c>
       <c r="AW12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX12" t="n">
         <v>25</v>
       </c>
       <c r="AY12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
         <v>11</v>
@@ -2636,10 +2703,10 @@
         <v>26</v>
       </c>
       <c r="BB12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>20</v>
@@ -2758,7 +2825,7 @@
         <v>24</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2773,7 +2840,7 @@
         <v>22</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN13" t="n">
         <v>26</v>
@@ -2815,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="BA13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB13" t="n">
         <v>30</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>7.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG14" t="n">
         <v>4</v>
@@ -2943,7 +3010,7 @@
         <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ14" t="n">
         <v>26</v>
@@ -2955,7 +3022,7 @@
         <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN14" t="n">
         <v>7</v>
@@ -2970,10 +3037,10 @@
         <v>7</v>
       </c>
       <c r="AR14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT14" t="n">
         <v>27</v>
@@ -2985,13 +3052,13 @@
         <v>28</v>
       </c>
       <c r="AW14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14" t="n">
         <v>8</v>
       </c>
       <c r="AY14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ14" t="n">
         <v>28</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>3.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>20</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG15" t="n">
         <v>22</v>
@@ -3131,10 +3198,10 @@
         <v>29</v>
       </c>
       <c r="AK15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM15" t="n">
         <v>11</v>
@@ -3161,7 +3228,7 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV15" t="n">
         <v>30</v>
@@ -3173,7 +3240,7 @@
         <v>13</v>
       </c>
       <c r="AY15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
         <v>10</v>
@@ -3182,10 +3249,10 @@
         <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -3295,19 +3362,19 @@
         <v>22</v>
       </c>
       <c r="AE16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF16" t="n">
         <v>2</v>
       </c>
       <c r="AG16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH16" t="n">
         <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ16" t="n">
         <v>3</v>
@@ -3328,7 +3395,7 @@
         <v>8</v>
       </c>
       <c r="AP16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ16" t="n">
         <v>2</v>
@@ -3337,7 +3404,7 @@
         <v>6</v>
       </c>
       <c r="AS16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT16" t="n">
         <v>9</v>
@@ -3352,7 +3419,7 @@
         <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY16" t="n">
         <v>24</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -3396,94 +3463,94 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
         <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7</v>
+        <v>0.667</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>38.9</v>
+        <v>39.2</v>
       </c>
       <c r="J17" t="n">
-        <v>79.40000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.49</v>
+        <v>0.492</v>
       </c>
       <c r="L17" t="n">
-        <v>9.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M17" t="n">
-        <v>21.7</v>
+        <v>21.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.429</v>
+        <v>0.421</v>
       </c>
       <c r="O17" t="n">
-        <v>17.1</v>
+        <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>22.4</v>
+        <v>23.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.763</v>
+        <v>0.76</v>
       </c>
       <c r="R17" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="S17" t="n">
-        <v>30</v>
+        <v>30.7</v>
       </c>
       <c r="T17" t="n">
-        <v>38.6</v>
+        <v>39.7</v>
       </c>
       <c r="U17" t="n">
         <v>23.9</v>
       </c>
       <c r="V17" t="n">
-        <v>13.4</v>
+        <v>13.7</v>
       </c>
       <c r="W17" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="X17" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.5</v>
+        <v>20.1</v>
       </c>
       <c r="AA17" t="n">
         <v>20.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.2</v>
+        <v>104.9</v>
       </c>
       <c r="AC17" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF17" t="n">
         <v>7</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH17" t="n">
         <v>15</v>
@@ -3492,7 +3559,7 @@
         <v>2</v>
       </c>
       <c r="AJ17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK17" t="n">
         <v>2</v>
@@ -3501,55 +3568,55 @@
         <v>2</v>
       </c>
       <c r="AM17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AN17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AS17" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AT17" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AU17" t="n">
         <v>5</v>
       </c>
       <c r="AV17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW17" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AX17" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ17" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB17" t="n">
         <v>1</v>
       </c>
       <c r="BC17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -3659,10 +3726,10 @@
         <v>22</v>
       </c>
       <c r="AE18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG18" t="n">
         <v>5</v>
@@ -3692,7 +3759,7 @@
         <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
         <v>10</v>
@@ -3707,10 +3774,10 @@
         <v>12</v>
       </c>
       <c r="AU18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW18" t="n">
         <v>3</v>
@@ -3719,19 +3786,19 @@
         <v>10</v>
       </c>
       <c r="AY18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC18" t="n">
         <v>9</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>8</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -3838,10 +3905,10 @@
         <v>2.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF19" t="n">
         <v>7</v>
@@ -3880,7 +3947,7 @@
         <v>25</v>
       </c>
       <c r="AR19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS19" t="n">
         <v>9</v>
@@ -3907,7 +3974,7 @@
         <v>5</v>
       </c>
       <c r="BA19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-1</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4038,7 +4105,7 @@
         <v>26</v>
       </c>
       <c r="AJ20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK20" t="n">
         <v>19</v>
@@ -4047,7 +4114,7 @@
         <v>23</v>
       </c>
       <c r="AM20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN20" t="n">
         <v>27</v>
@@ -4068,13 +4135,13 @@
         <v>11</v>
       </c>
       <c r="AT20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
         <v>18</v>
       </c>
       <c r="AV20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW20" t="n">
         <v>25</v>
@@ -4095,7 +4162,7 @@
         <v>26</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -4124,10 +4191,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -4139,73 +4206,73 @@
         <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>38.2</v>
+        <v>38</v>
       </c>
       <c r="J21" t="n">
-        <v>83.2</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L21" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="M21" t="n">
-        <v>27.8</v>
+        <v>28.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.425</v>
+        <v>0.426</v>
       </c>
       <c r="O21" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P21" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.742</v>
+        <v>0.762</v>
       </c>
       <c r="R21" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S21" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T21" t="n">
-        <v>39.8</v>
+        <v>39.6</v>
       </c>
       <c r="U21" t="n">
-        <v>19.7</v>
+        <v>20.2</v>
       </c>
       <c r="V21" t="n">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="W21" t="n">
-        <v>9.699999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="X21" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Y21" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>17.2</v>
+        <v>16.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.7</v>
+        <v>18.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="AC21" t="n">
-        <v>13.7</v>
+        <v>15.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF21" t="n">
         <v>1</v>
@@ -4217,10 +4284,10 @@
         <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK21" t="n">
         <v>7</v>
@@ -4232,46 +4299,46 @@
         <v>2</v>
       </c>
       <c r="AN21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO21" t="n">
         <v>24</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AR21" t="n">
         <v>23</v>
       </c>
       <c r="AS21" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AT21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY21" t="n">
         <v>2</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>3</v>
       </c>
       <c r="AZ21" t="n">
         <v>3</v>
       </c>
       <c r="BA21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB21" t="n">
         <v>2</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -4384,16 +4451,16 @@
         <v>5.2</v>
       </c>
       <c r="AD22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="n">
         <v>2</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>3</v>
       </c>
       <c r="AF22" t="n">
         <v>7</v>
       </c>
       <c r="AG22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH22" t="n">
         <v>15</v>
@@ -4405,10 +4472,10 @@
         <v>30</v>
       </c>
       <c r="AK22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM22" t="n">
         <v>26</v>
@@ -4426,16 +4493,16 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
@@ -4456,7 +4523,7 @@
         <v>6</v>
       </c>
       <c r="BB22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC22" t="n">
         <v>4</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -4572,7 +4639,7 @@
         <v>25</v>
       </c>
       <c r="AF23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG23" t="n">
         <v>25</v>
@@ -4590,7 +4657,7 @@
         <v>18</v>
       </c>
       <c r="AL23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM23" t="n">
         <v>29</v>
@@ -4614,7 +4681,7 @@
         <v>14</v>
       </c>
       <c r="AT23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU23" t="n">
         <v>8</v>
@@ -4626,13 +4693,13 @@
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY23" t="n">
         <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -4748,13 +4815,13 @@
         <v>-3.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG24" t="n">
         <v>14</v>
@@ -4775,10 +4842,10 @@
         <v>12</v>
       </c>
       <c r="AM24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO24" t="n">
         <v>25</v>
@@ -4796,7 +4863,7 @@
         <v>12</v>
       </c>
       <c r="AT24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU24" t="n">
         <v>26</v>
@@ -4805,7 +4872,7 @@
         <v>8</v>
       </c>
       <c r="AW24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX24" t="n">
         <v>22</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -4930,25 +4997,25 @@
         <v>-5</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH25" t="n">
         <v>13</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>12</v>
       </c>
       <c r="AI25" t="n">
         <v>4</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK25" t="n">
         <v>24</v>
@@ -4981,7 +5048,7 @@
         <v>8</v>
       </c>
       <c r="AU25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV25" t="n">
         <v>3</v>
@@ -5002,7 +5069,7 @@
         <v>14</v>
       </c>
       <c r="BB25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC25" t="n">
         <v>25</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -5112,13 +5179,13 @@
         <v>-3</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>20</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG26" t="n">
         <v>22</v>
@@ -5145,7 +5212,7 @@
         <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
         <v>18</v>
@@ -5166,7 +5233,7 @@
         <v>27</v>
       </c>
       <c r="AV26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW26" t="n">
         <v>5</v>
@@ -5178,7 +5245,7 @@
         <v>7</v>
       </c>
       <c r="AZ26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-7.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5318,7 +5385,7 @@
         <v>27</v>
       </c>
       <c r="AL27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM27" t="n">
         <v>23</v>
@@ -5354,7 +5421,7 @@
         <v>6</v>
       </c>
       <c r="AX27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -5398,94 +5465,94 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.778</v>
+        <v>0.875</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J28" t="n">
-        <v>79.09999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.469</v>
+        <v>0.474</v>
       </c>
       <c r="L28" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="M28" t="n">
-        <v>19.8</v>
+        <v>18.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.343</v>
+        <v>0.356</v>
       </c>
       <c r="O28" t="n">
         <v>16</v>
       </c>
       <c r="P28" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="R28" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="S28" t="n">
-        <v>31.3</v>
+        <v>30.9</v>
       </c>
       <c r="T28" t="n">
-        <v>39.9</v>
+        <v>38.9</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="V28" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="W28" t="n">
-        <v>8.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X28" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.2</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="n">
         <v>19.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>97</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
       </c>
       <c r="AF28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH28" t="n">
         <v>15</v>
@@ -5494,49 +5561,49 @@
         <v>10</v>
       </c>
       <c r="AJ28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN28" t="n">
         <v>13</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>15</v>
       </c>
       <c r="AO28" t="n">
         <v>21</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AR28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS28" t="n">
         <v>15</v>
       </c>
       <c r="AT28" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AU28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX28" t="n">
         <v>17</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>16</v>
       </c>
       <c r="AY28" t="n">
         <v>21</v>
@@ -5548,10 +5615,10 @@
         <v>23</v>
       </c>
       <c r="BB28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC28" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>25</v>
@@ -5685,22 +5752,22 @@
         <v>9</v>
       </c>
       <c r="AM29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ29" t="n">
         <v>3</v>
       </c>
       <c r="AR29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
@@ -5709,28 +5776,28 @@
         <v>22</v>
       </c>
       <c r="AU29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV29" t="n">
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX29" t="n">
         <v>27</v>
       </c>
       <c r="AY29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BB29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BC29" t="n">
         <v>24</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>0.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG30" t="n">
         <v>19</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>18</v>
       </c>
       <c r="AH30" t="n">
         <v>2</v>
@@ -5873,13 +5940,13 @@
         <v>14</v>
       </c>
       <c r="AO30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP30" t="n">
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
         <v>7</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
@@ -6067,7 +6134,7 @@
         <v>18</v>
       </c>
       <c r="AS31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT31" t="n">
         <v>20</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-15-2012-13</t>
+          <t>2012-11-15</t>
         </is>
       </c>
     </row>
